--- a/Anhchi.xlsx
+++ b/Anhchi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JetbrainsTool\PycharmProjects\CodePtit\SinhNhat11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834F16B-84BB-4AEC-8539-AEC091672CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A58C35-C108-4BDB-AF89-CB24FC2AAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="672" windowWidth="17280" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -220,13 +220,97 @@
   </si>
   <si>
     <t>nguyenngabin@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YzOl7a9VOdxMnHoZ9y9Oj_S5-Lue0F9w/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Chị Thu Nga</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/101M3oCpdKZqGUhwWiVSlEGpDKEcgTw37/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/173zgEhaxA-bO3gdjekCoggm7PgjkabYe/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P8r702mFzQycoESTu6_L9jk1uW4HqE7n/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pNBs2rlnsR1HDxVGDcHbdqWCyACTmvD9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Chị Thu Trang</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19136vcCEZGwJ2XZSbzJMkhKjRW4oByeZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nguyễn Văn Luyện</t>
+  </si>
+  <si>
+    <t>nguyenvanluyen1994@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UWfF3G3u4FWU3nBUe9xpLmbt-frdpzwO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Vũ Đình Hoàng</t>
+  </si>
+  <si>
+    <t>hoangvu.itptit@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A1rI0F8Toq6qOPY5E8kMsVQmHar4slS8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nguyễn Thành Luân</t>
+  </si>
+  <si>
+    <t>boy_pro_hero_1993@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1001dr3jfTsw4cjV-PqEH-CcbiFS7Vvpe/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nghiêm Phú Thiết</t>
+  </si>
+  <si>
+    <t>thietnpptit@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bb2GiLYFoBtkVpTtcXjRRZvE8BYcXJG0/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nguyễn Tiến Anh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PpP00g9ZDdHnmFucG_792QQ2kLqzlwc2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nguyễn Thế Doanh</t>
+  </si>
+  <si>
+    <t>nguyendoanh266@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XuC_HjiX5dyY6w4HwfYeCrBCwYhsEMsy/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anh Nguyễn Văn Quân</t>
+  </si>
+  <si>
+    <t>nguyenquan30102001@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pM7Wpipw5tbdyMR1X4CjmEOEztKLlI5G/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +338,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +381,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,12 +411,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -319,6 +475,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +1134,178 @@
         <v>33</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{8B15483A-69F9-44B9-A1C6-098B9131C197}"/>
@@ -962,6 +1313,23 @@
     <hyperlink ref="C16" r:id="rId3" xr:uid="{76795CB9-5A03-4DC6-B445-5A4CAEE999B8}"/>
     <hyperlink ref="C17:C31" r:id="rId4" display="https://drive.google.com/file/d/1GwbhTZAywaBzAIyyFtDotoIKG4apCW7D/view?usp=drive_link" xr:uid="{16984876-B09D-48E7-AD46-5558FA47C063}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{12AD6164-28DF-48B0-942C-6AF0D8134539}"/>
+    <hyperlink ref="C35" r:id="rId6" xr:uid="{21DFD22A-D330-419A-BB42-20CC4E02EB3C}"/>
+    <hyperlink ref="B36" r:id="rId7" display="mailto:nguyenngabin@gmail.com" xr:uid="{F7C8DF13-B398-4492-BF6B-A2DFBFE3E8AA}"/>
+    <hyperlink ref="C36" r:id="rId8" xr:uid="{157A2DC3-BF78-4ABA-8A47-41ABDD14F22D}"/>
+    <hyperlink ref="C37" r:id="rId9" xr:uid="{2992C1EA-2811-41A5-B67E-9BA1DD71A2B3}"/>
+    <hyperlink ref="C38" r:id="rId10" xr:uid="{9A9DE055-7EE9-4006-BD8F-7B0496EF727E}"/>
+    <hyperlink ref="C39" r:id="rId11" xr:uid="{2F35961A-4443-4EAF-9B07-6397BFE20C66}"/>
+    <hyperlink ref="C40" r:id="rId12" xr:uid="{8AFEAD4E-00B8-48F9-8A9C-D061F7AE91AF}"/>
+    <hyperlink ref="B41" r:id="rId13" display="mailto:nguyenvanluyen1994@gmail.com" xr:uid="{2C5DAE42-F7B3-4586-AC11-60DD02660FE3}"/>
+    <hyperlink ref="C41" r:id="rId14" xr:uid="{C85BB590-7093-4B69-A0D1-9C8A5E529308}"/>
+    <hyperlink ref="C42" r:id="rId15" xr:uid="{C22096F1-D323-4982-B01D-790A2C2206C3}"/>
+    <hyperlink ref="B43" r:id="rId16" display="mailto:boy_pro_hero_1993@yahoo.com" xr:uid="{408DC1A1-53CE-48D1-A370-0C9966036775}"/>
+    <hyperlink ref="C43" r:id="rId17" xr:uid="{9B297A73-87E1-4976-8A4D-1EB515633F6F}"/>
+    <hyperlink ref="C44" r:id="rId18" xr:uid="{984E10EB-64C3-457C-B439-8423472E1F0B}"/>
+    <hyperlink ref="C45" r:id="rId19" xr:uid="{58517F86-BED0-4A1B-A231-7D12A76848A9}"/>
+    <hyperlink ref="C46" r:id="rId20" xr:uid="{CF6FC601-8DE8-4F6D-9659-C6ABF3478ACF}"/>
+    <hyperlink ref="B47" r:id="rId21" display="mailto:nguyenquan30102001@gmail.com" xr:uid="{8E12EEC4-BAF2-4D0D-8DB2-07948734B94C}"/>
+    <hyperlink ref="C47" r:id="rId22" xr:uid="{956E9292-A5A5-4C36-9D41-C23EF1B7F151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
